--- a/email_with_attachment/파트너목록.xlsx
+++ b/email_with_attachment/파트너목록.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\python\python_automation\excel_classification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\python_automation\email_with_attachment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0800AB54-6959-4B0B-8C13-6CAF74028007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CF9251-77F4-40FE-B316-4E8954492F18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7530" yWindow="5355" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="입점확정업체" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="334">
   <si>
     <t>No.</t>
   </si>
@@ -262,57 +262,6 @@
     <t>그레이스커스텀</t>
   </si>
   <si>
-    <t>prisoner_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>tolerance_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>rooster_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>finger_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>driveway_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>boss_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>amendment_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>mist_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>noun_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>beating_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>guilder_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>detour_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>syndicate_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>semiconductor_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>conditioner_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>mind_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>grit_xxxx@naver.com</t>
-  </si>
-  <si>
     <t>누들링라</t>
   </si>
   <si>
@@ -1079,603 +1028,6 @@
   </si>
   <si>
     <t>심유안 차장</t>
-  </si>
-  <si>
-    <t>shack_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>movement_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>gran_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>patron_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>bottle_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>vintner_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>towel_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>centurion_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>interpretation_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>spokeswoman_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>horde_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>scope_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>giggle_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>revival_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>sanction_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>forever_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>pomegranate_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>dryer_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>nightlife_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>telescreen_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>monocle_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>trigger_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>folder_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>vendor_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>mailbox_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>locomotive_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>short_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>assist_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>ore_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>blizzard_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>salad_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>roast_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>reply_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>haversack_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>alibi_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>option_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>lox_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>representative_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>estimate_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>concentration_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>platinum_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>year_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>spot_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>vanity_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>lemon_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>bartender_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>chip_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>mobster_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>swine_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>broadcast_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>court_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>glasses_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>broad_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>allowance_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>fry_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>comfortable_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>shaw_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>gall-bladder_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>regulation_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>paradise_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>ideology_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>cranky_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>nonsense_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>base_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>yesterday_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>prose_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>eviction_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>edible_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>picture_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>staircase_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>bower_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>piracy_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>meringue_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>vulture_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>bull-fighter_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>gingerbread_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>infusion_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>conflict_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>mandolin_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>dredger_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>retention_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>parameter_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>board_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>blizzard_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>lanai_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>shell_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>transparency_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>obsidian_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>bee_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>pendant_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>credential_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>sitar_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>mix_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>clapboard_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>bowl_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>townhouse_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>probe_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>whirlwind_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>flare_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>kind_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>ballot_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>silver_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>restriction_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>embellishment_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>mosquito_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>incision_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>vellum_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>industry_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>garbage_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>walker_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>daughter_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>elderberry_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>creationist_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>counseling_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>likelihood_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>equal_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>fitness_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>indigence_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>grasshopper_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>orator_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>calendar_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>octagon_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>spinach_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>skyline_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>parking_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>danger_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>waffle_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>fan_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>sideboard_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>boyhood_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>cheddar_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>sparrow_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>motor_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>barrier_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>pepperoni_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>bafflement_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>adapter_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>wolf_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>inbox_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>credential_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>program_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>fly_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>atheist_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>receiver_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>waiting_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>pantology_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>blank_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>egghead_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>request_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>familiar_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>commotion_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>studio_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>analogue_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>jellybeans_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>chronometer_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>milkshake_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>suck_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>encouragement_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>homeland_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>thrill_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>dryer_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>populist_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>strawman_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>sexuality_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>dromedary_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>mythology_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>diffuse_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>helmet_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>blanket_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>price_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>body_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>device_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>disagreement_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>freight_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>paddle_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>mind_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>sibling_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>scallion_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>yang_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>elk_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>pup_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>legume_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>abnormality_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>poverty_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>playroom_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>hobbit_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>forever_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>methodology_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>reconsideration_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>concentration_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>formicarium_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>roster_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>diffuse_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>steak_xxxx@gmail.com</t>
-  </si>
-  <si>
-    <t>inventor_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>archaeology_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>overclocking_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>reasoning_xxxx@naver.com</t>
-  </si>
-  <si>
-    <t>belief_xxxx@gmail.com</t>
   </si>
   <si>
     <t>루우디</t>
@@ -1691,6 +1043,13 @@
   </si>
   <si>
     <t>비씨디컴퍼니</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>kimseokjin0324@gmail.com</t>
+  </si>
+  <si>
+    <t>kimseokjin0324@gmail.com</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2136,10 +1495,10 @@
   <dimension ref="A1:K804"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B97" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D110" sqref="D110"/>
+      <selection pane="bottomRight" activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2185,16 +1544,16 @@
         <v>49</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>449</v>
+        <v>332</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -2207,19 +1566,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>450</v>
+        <v>332</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -2235,16 +1594,16 @@
         <v>59</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>86</v>
+        <v>332</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>451</v>
+        <v>332</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -2257,19 +1616,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>452</v>
+        <v>332</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -2282,19 +1641,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>544</v>
+        <v>328</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>68</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -2307,19 +1666,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>453</v>
+        <v>332</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -2335,16 +1694,16 @@
         <v>39</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>454</v>
+        <v>332</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -2357,19 +1716,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>455</v>
+        <v>332</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -2385,16 +1744,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>456</v>
+        <v>332</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -2410,16 +1769,16 @@
         <v>54</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>457</v>
+        <v>332</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -2432,19 +1791,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>362</v>
+        <v>332</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>458</v>
+        <v>332</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -2457,19 +1816,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>459</v>
+        <v>332</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -2482,19 +1841,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>460</v>
+        <v>332</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -2507,19 +1866,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>67</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>461</v>
+        <v>332</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -2532,19 +1891,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>462</v>
+        <v>332</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -2557,19 +1916,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>463</v>
+        <v>332</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -2585,16 +1944,16 @@
         <v>26</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>368</v>
+        <v>332</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>464</v>
+        <v>332</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -2610,16 +1969,16 @@
         <v>47</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>465</v>
+        <v>332</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -2632,19 +1991,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>466</v>
+        <v>332</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -2657,19 +2016,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -2685,16 +2044,16 @@
         <v>34</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>467</v>
+        <v>332</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -2710,16 +2069,16 @@
         <v>25</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>373</v>
+        <v>332</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>468</v>
+        <v>332</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -2732,19 +2091,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>469</v>
+        <v>332</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -2760,16 +2119,16 @@
         <v>31</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>374</v>
+        <v>332</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>470</v>
+        <v>332</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -2785,16 +2144,16 @@
         <v>28</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>82</v>
+        <v>332</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>471</v>
+        <v>332</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -2807,19 +2166,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>472</v>
+        <v>332</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -2835,16 +2194,16 @@
         <v>38</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>375</v>
+        <v>332</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>473</v>
+        <v>332</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -2857,19 +2216,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>474</v>
+        <v>332</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -2885,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -2907,19 +2266,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>71</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -2935,16 +2294,16 @@
         <v>20</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>378</v>
+        <v>332</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>475</v>
+        <v>332</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -2960,16 +2319,16 @@
         <v>12</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>379</v>
+        <v>332</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>476</v>
+        <v>332</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -2985,16 +2344,16 @@
         <v>36</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>477</v>
+        <v>332</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -3010,16 +2369,16 @@
         <v>10</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>381</v>
+        <v>332</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>478</v>
+        <v>332</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -3035,16 +2394,16 @@
         <v>50</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>382</v>
+        <v>332</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>479</v>
+        <v>332</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -3057,19 +2416,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>383</v>
+        <v>332</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>480</v>
+        <v>332</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -3085,16 +2444,16 @@
         <v>11</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>384</v>
+        <v>332</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>88</v>
+        <v>332</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -3110,16 +2469,16 @@
         <v>57</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>385</v>
+        <v>332</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>481</v>
+        <v>332</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -3135,16 +2494,16 @@
         <v>61</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>386</v>
+        <v>332</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>482</v>
+        <v>332</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -3160,16 +2519,16 @@
         <v>45</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>387</v>
+        <v>332</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>483</v>
+        <v>332</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -3182,19 +2541,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>388</v>
+        <v>332</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>72</v>
+        <v>332</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -3207,19 +2566,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>389</v>
+        <v>332</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>484</v>
+        <v>332</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -3235,16 +2594,16 @@
         <v>63</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>390</v>
+        <v>332</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>85</v>
+        <v>332</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -3260,16 +2619,16 @@
         <v>42</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>84</v>
+        <v>332</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>76</v>
+        <v>332</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -3285,16 +2644,16 @@
         <v>62</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>391</v>
+        <v>332</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>485</v>
+        <v>332</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -3310,16 +2669,16 @@
         <v>43</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>392</v>
+        <v>332</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>486</v>
+        <v>332</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -3332,19 +2691,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>393</v>
+        <v>332</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>487</v>
+        <v>332</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -3357,19 +2716,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>394</v>
+        <v>332</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>488</v>
+        <v>332</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -3382,19 +2741,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>395</v>
+        <v>332</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>489</v>
+        <v>332</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -3410,16 +2769,16 @@
         <v>48</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>396</v>
+        <v>332</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>490</v>
+        <v>332</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -3435,16 +2794,16 @@
         <v>21</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>397</v>
+        <v>332</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>491</v>
+        <v>332</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -3460,16 +2819,16 @@
         <v>33</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>492</v>
+        <v>332</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -3482,19 +2841,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>399</v>
+        <v>332</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>493</v>
+        <v>332</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -3507,19 +2866,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>400</v>
+        <v>332</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>494</v>
+        <v>332</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -3532,19 +2891,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>401</v>
+        <v>332</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>495</v>
+        <v>332</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -3557,19 +2916,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>402</v>
+        <v>332</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>496</v>
+        <v>332</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -3585,16 +2944,16 @@
         <v>27</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>403</v>
+        <v>332</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>497</v>
+        <v>332</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -3607,19 +2966,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>404</v>
+        <v>332</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>498</v>
+        <v>332</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -3635,16 +2994,16 @@
         <v>40</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>405</v>
+        <v>332</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>80</v>
+        <v>332</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -3663,13 +3022,13 @@
         <v>6</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>406</v>
+        <v>332</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>499</v>
+        <v>332</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -3682,19 +3041,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>66</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>407</v>
+        <v>332</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>500</v>
+        <v>332</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -3710,16 +3069,16 @@
         <v>24</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>408</v>
+        <v>332</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>501</v>
+        <v>332</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -3735,16 +3094,16 @@
         <v>56</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>409</v>
+        <v>332</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>502</v>
+        <v>332</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -3757,19 +3116,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>410</v>
+        <v>332</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>503</v>
+        <v>332</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -3785,16 +3144,16 @@
         <v>58</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>411</v>
+        <v>332</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>504</v>
+        <v>332</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -3807,19 +3166,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>412</v>
+        <v>332</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>505</v>
+        <v>332</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -3832,19 +3191,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>413</v>
+        <v>332</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -3860,16 +3219,16 @@
         <v>64</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>506</v>
+        <v>332</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -3885,16 +3244,16 @@
         <v>35</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>414</v>
+        <v>332</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>507</v>
+        <v>332</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -3907,19 +3266,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>415</v>
+        <v>332</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>508</v>
+        <v>332</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -3932,19 +3291,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>416</v>
+        <v>332</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>509</v>
+        <v>332</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -3957,19 +3316,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>417</v>
+        <v>332</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>510</v>
+        <v>332</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -3985,16 +3344,16 @@
         <v>17</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>418</v>
+        <v>332</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>511</v>
+        <v>332</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -4010,16 +3369,16 @@
         <v>19</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>419</v>
+        <v>332</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>512</v>
+        <v>332</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -4032,19 +3391,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>75</v>
+        <v>332</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>513</v>
+        <v>332</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -4057,19 +3416,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>420</v>
+        <v>332</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>514</v>
+        <v>332</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -4082,19 +3441,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>421</v>
+        <v>332</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>515</v>
+        <v>332</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -4107,19 +3466,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>422</v>
+        <v>332</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>516</v>
+        <v>332</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -4135,16 +3494,16 @@
         <v>30</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>517</v>
+        <v>332</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -4160,16 +3519,16 @@
         <v>51</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>518</v>
+        <v>332</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -4188,13 +3547,13 @@
         <v>69</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>423</v>
+        <v>332</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>519</v>
+        <v>332</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -4210,16 +3569,16 @@
         <v>41</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>87</v>
+        <v>332</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>520</v>
+        <v>332</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -4232,19 +3591,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>424</v>
+        <v>332</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>521</v>
+        <v>332</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -4260,16 +3619,16 @@
         <v>44</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>425</v>
+        <v>332</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>522</v>
+        <v>332</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -4282,19 +3641,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>426</v>
+        <v>332</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>523</v>
+        <v>332</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -4307,19 +3666,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>427</v>
+        <v>332</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>524</v>
+        <v>332</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -4335,16 +3694,16 @@
         <v>22</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>428</v>
+        <v>332</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>525</v>
+        <v>332</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -4357,19 +3716,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>429</v>
+        <v>332</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>526</v>
+        <v>332</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
@@ -4385,16 +3744,16 @@
         <v>16</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>545</v>
+        <v>329</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>430</v>
+        <v>332</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>527</v>
+        <v>332</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
@@ -4410,16 +3769,16 @@
         <v>9</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>431</v>
+        <v>332</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>528</v>
+        <v>332</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -4435,16 +3794,16 @@
         <v>18</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>432</v>
+        <v>332</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>529</v>
+        <v>332</v>
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
@@ -4460,16 +3819,16 @@
         <v>60</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>433</v>
+        <v>332</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>530</v>
+        <v>332</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -4482,19 +3841,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>434</v>
+        <v>332</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>531</v>
+        <v>332</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
@@ -4510,16 +3869,16 @@
         <v>13</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>435</v>
+        <v>332</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>74</v>
+        <v>332</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
@@ -4532,19 +3891,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>77</v>
+        <v>332</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>532</v>
+        <v>332</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
@@ -4557,19 +3916,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>436</v>
+        <v>332</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>83</v>
+        <v>332</v>
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
@@ -4585,16 +3944,16 @@
         <v>55</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>437</v>
+        <v>332</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>533</v>
+        <v>332</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
@@ -4607,19 +3966,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>438</v>
+        <v>332</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>534</v>
+        <v>332</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
@@ -4635,16 +3994,16 @@
         <v>46</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>439</v>
+        <v>332</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>535</v>
+        <v>332</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
@@ -4657,19 +4016,19 @@
         <v>100</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C101" s="10" t="s">
         <v>65</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>440</v>
+        <v>332</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>536</v>
+        <v>332</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
@@ -4682,19 +4041,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>441</v>
+        <v>332</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>537</v>
+        <v>332</v>
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
@@ -4710,16 +4069,16 @@
         <v>7</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>442</v>
+        <v>332</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>73</v>
+        <v>332</v>
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
@@ -4735,16 +4094,16 @@
         <v>14</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>443</v>
+        <v>332</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>538</v>
+        <v>332</v>
       </c>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
@@ -4760,16 +4119,16 @@
         <v>32</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>444</v>
+        <v>332</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>539</v>
+        <v>332</v>
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
@@ -4782,19 +4141,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>445</v>
+        <v>332</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>540</v>
+        <v>332</v>
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
@@ -4813,13 +4172,13 @@
         <v>70</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>446</v>
+        <v>332</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>541</v>
+        <v>332</v>
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
@@ -4835,16 +4194,16 @@
         <v>23</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="D108" s="14" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>447</v>
+        <v>332</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>542</v>
+        <v>332</v>
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
@@ -4860,16 +4219,16 @@
         <v>29</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>448</v>
+        <v>332</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>543</v>
+        <v>332</v>
       </c>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
@@ -4882,13 +4241,18 @@
         <v>109</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>546</v>
+        <v>330</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>547</v>
+        <v>331</v>
       </c>
       <c r="D110" s="1"/>
-      <c r="F110" s="1"/>
+      <c r="E110" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>332</v>
+      </c>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
@@ -13812,7 +13176,10 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{1A9929D5-9AE6-47EB-AACE-1B459D80E03C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>